--- a/biology/Médecine/Otto_Pötzl/Otto_Pötzl.xlsx
+++ b/biology/Médecine/Otto_Pötzl/Otto_Pötzl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Otto_P%C3%B6tzl</t>
+          <t>Otto_Pötzl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Pötzl est un neurologue et psychiatre autrichien né le 29 octobre 1877 à Vienne et mort le 1er avril 1962 dans la même ville. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Otto_P%C3%B6tzl</t>
+          <t>Otto_Pötzl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du journaliste et écrivain Eduard Pötzl (de)[1], Otto Pötzl naît à Vienne en Autriche le 29 octobre 1877[2]. Otto étudie la médecine à l'université de Vienne[1]. Il complète ses études le 15 janvier 1901. 
-En 1911, il obtient une habilitation en psychiatrie et en neurologie de l'université de Vienne[3]. 
-En 1919, Otto Pötzl est nommé professeur extraordinarus. En 1922, il succède à Arnold Pick comme professeur de psychiatrie à l'université Charles de Prague. Nommé successeur de Julius Wagner-Jauregg, il retourne dans sa ville natale et atteint l'apogée de sa carrière en tant que professeur titulaire et directeur de la clinique universitaire psychiatrique-neurologique de Vienne (1928-1945). Il adhère au NSDAP en 1930[4].
-Otto Pötzl meurt le 1er avril 1962 à Vienne en Autriche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du journaliste et écrivain Eduard Pötzl (de), Otto Pötzl naît à Vienne en Autriche le 29 octobre 1877. Otto étudie la médecine à l'université de Vienne. Il complète ses études le 15 janvier 1901. 
+En 1911, il obtient une habilitation en psychiatrie et en neurologie de l'université de Vienne. 
+En 1919, Otto Pötzl est nommé professeur extraordinarus. En 1922, il succède à Arnold Pick comme professeur de psychiatrie à l'université Charles de Prague. Nommé successeur de Julius Wagner-Jauregg, il retourne dans sa ville natale et atteint l'apogée de sa carrière en tant que professeur titulaire et directeur de la clinique universitaire psychiatrique-neurologique de Vienne (1928-1945). Il adhère au NSDAP en 1930.
+Otto Pötzl meurt le 1er avril 1962 à Vienne en Autriche.
 Le physicien Johannes Pötzl (de) (1930–1993) est son fils.
 </t>
         </is>
